--- a/aoiConditions/train2P1Block6Test.xlsx
+++ b/aoiConditions/train2P1Block6Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train2P1Block6Test.xlsx
+++ b/aoiConditions/train2P1Block6Test.xlsx
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -40,7 +40,7 @@
     <t>pngimages/07_suitcase.png</t>
   </si>
   <si>
-    <t>trainingaudio/12_pokika3.wav</t>
+    <t>train2P1</t>
   </si>
   <si>
     <t>pngimages/12_pie.png</t>
